--- a/data/1.2/aunt(1, 1).xlsx
+++ b/data/1.2/aunt(1, 1).xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\1.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C0043-65A4-4E86-9605-1F4E91988EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>serviceScore</t>
   </si>
@@ -55,100 +61,97 @@
     <t>id</t>
   </si>
   <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[39, 5, 41]</t>
+  </si>
+  <si>
+    <t>[32]</t>
+  </si>
+  <si>
+    <t>[42, 0, 16, 40]</t>
+  </si>
+  <si>
+    <t>[13, 18]</t>
+  </si>
+  <si>
+    <t>[17, 10, 21]</t>
+  </si>
+  <si>
+    <t>[24, 46, 22]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[47, 25, 49]</t>
+  </si>
+  <si>
     <t>[15, 9, 36]</t>
   </si>
   <si>
-    <t>[39, 5, 41]</t>
-  </si>
-  <si>
-    <t>[32]</t>
-  </si>
-  <si>
-    <t>[17, 45, 38, 43, 19]</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[14, 31]</t>
+  </si>
+  <si>
+    <t>[35, 20, 44]</t>
+  </si>
+  <si>
+    <t>[11, 12, 34]</t>
+  </si>
+  <si>
+    <t>[48, 26, 27]</t>
+  </si>
+  <si>
+    <t>[1, 45, 38, 43, 19]</t>
   </si>
   <si>
     <t>[29, 28, 33, 23, 37]</t>
   </si>
   <si>
-    <t>[29, 13, 18]</t>
-  </si>
-  <si>
-    <t>[15, 47, 25, 49]</t>
-  </si>
-  <si>
-    <t>[24, 42, 0, 16, 40]</t>
-  </si>
-  <si>
-    <t>[29, 46, 22]</t>
-  </si>
-  <si>
-    <t>[15, 48, 26, 27]</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[29, 14, 31]</t>
-  </si>
-  <si>
-    <t>[35, 20, 44]</t>
-  </si>
-  <si>
-    <t>[11, 12, 34]</t>
-  </si>
-  <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>[1, 2]</t>
-  </si>
-  <si>
-    <t>[11, 8, 10, 21]</t>
-  </si>
-  <si>
     <t>[7, 6, 3, 4]</t>
   </si>
   <si>
+    <t>[0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[1.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 5.0, 8.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 6.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 7.0, 9.0]</t>
+  </si>
+  <si>
     <t>[0.0, 2.0, 5.0]</t>
   </si>
   <si>
-    <t>[0.0, 2.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[1.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.5, 5.0, 7.5, 9.0]</t>
+    <t>[1.0, 5.0, 7.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 7.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.5, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 5.0, 7.5, 9.0]</t>
   </si>
   <si>
     <t>[0.0, 2.0, 4.0, 7.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 6.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.5, 5.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 5.0, 8.0, 10.0]</t>
-  </si>
-  <si>
-    <t>[0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 4.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.5, 5.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.5]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.5, 7.0, 9.0]</t>
   </si>
   <si>
     <t>[0.0, 1.5, 6.0, 9.0]</t>
@@ -157,12 +160,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,8 +173,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,15 +227,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,9 +317,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +369,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,14 +562,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -556,12 +614,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9998</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="C2">
         <v>931</v>
@@ -570,13 +628,13 @@
         <v>-31576</v>
       </c>
       <c r="E2">
-        <v>-15.478</v>
+        <v>-2.351</v>
       </c>
       <c r="F2">
-        <v>-27.171</v>
+        <v>-23.28</v>
       </c>
       <c r="G2">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -597,12 +655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9993</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="C3">
         <v>7529</v>
@@ -611,7 +669,7 @@
         <v>-7145</v>
       </c>
       <c r="E3">
-        <v>20.906</v>
+        <v>20.905999999999999</v>
       </c>
       <c r="F3">
         <v>-7.931</v>
@@ -638,12 +696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9992</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="C4">
         <v>5393</v>
@@ -652,7 +710,7 @@
         <v>2140</v>
       </c>
       <c r="E4">
-        <v>3.837</v>
+        <v>3.8370000000000002</v>
       </c>
       <c r="F4">
         <v>-4.17</v>
@@ -679,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -693,10 +751,10 @@
         <v>-3340</v>
       </c>
       <c r="E5">
-        <v>10.338</v>
+        <v>-3.7120000000000002</v>
       </c>
       <c r="F5">
-        <v>-13.712</v>
+        <v>-18.471</v>
       </c>
       <c r="G5">
         <v>11.5</v>
@@ -720,12 +778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9988</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="C6">
         <v>-3975</v>
@@ -734,13 +792,13 @@
         <v>4144</v>
       </c>
       <c r="E6">
-        <v>-16.711</v>
+        <v>-2.71</v>
       </c>
       <c r="F6">
-        <v>-7.162</v>
+        <v>-5.0819999999999999</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -761,12 +819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9986</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="C7">
         <v>-1664</v>
@@ -775,16 +833,16 @@
         <v>-4955</v>
       </c>
       <c r="E7">
-        <v>-2.71</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="F7">
-        <v>-5.082</v>
+        <v>-4.7279999999999998</v>
       </c>
       <c r="G7">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -802,12 +860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9982</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="C8">
         <v>-9033</v>
@@ -816,13 +874,13 @@
         <v>-19403</v>
       </c>
       <c r="E8">
-        <v>-2.349</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="F8">
-        <v>-23.288</v>
+        <v>-4.7279999999999998</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -843,12 +901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9981</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="C9">
         <v>3469</v>
@@ -857,22 +915,22 @@
         <v>-7249</v>
       </c>
       <c r="E9">
-        <v>-3.712</v>
+        <v>3.94</v>
       </c>
       <c r="F9">
-        <v>-18.471</v>
+        <v>-11.414</v>
       </c>
       <c r="G9">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -884,12 +942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9979</v>
+        <v>0.99790000000000001</v>
       </c>
       <c r="C10">
         <v>775</v>
@@ -898,13 +956,13 @@
         <v>-2321</v>
       </c>
       <c r="E10">
-        <v>0.572</v>
+        <v>-5.6779999999999999</v>
       </c>
       <c r="F10">
-        <v>-4.728</v>
+        <v>-5.3029999999999999</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -913,7 +971,7 @@
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -925,12 +983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9976</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="C11">
         <v>-15148</v>
@@ -939,13 +997,13 @@
         <v>-28155</v>
       </c>
       <c r="E11">
-        <v>-4.624</v>
+        <v>-2.3490000000000002</v>
       </c>
       <c r="F11">
-        <v>-9.316000000000001</v>
+        <v>-23.288</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -954,7 +1012,7 @@
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -966,12 +1024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9974</v>
+        <v>0.99739999999999995</v>
       </c>
       <c r="C12">
         <v>-10904</v>
@@ -980,13 +1038,13 @@
         <v>-24895</v>
       </c>
       <c r="E12">
-        <v>-10.756</v>
+        <v>-15.478</v>
       </c>
       <c r="F12">
-        <v>-23.997</v>
+        <v>-27.170999999999999</v>
       </c>
       <c r="G12">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -995,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1007,12 +1065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9971</v>
+        <v>0.99709999999999999</v>
       </c>
       <c r="C13">
         <v>2161</v>
@@ -1048,12 +1106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9968</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="C14">
         <v>-8408</v>
@@ -1062,10 +1120,10 @@
         <v>12411</v>
       </c>
       <c r="E14">
-        <v>-0.059</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="F14">
-        <v>-0.073</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="G14">
         <v>9.5</v>
@@ -1077,7 +1135,7 @@
         <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1089,12 +1147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9965000000000001</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="C15">
         <v>9108</v>
@@ -1103,10 +1161,10 @@
         <v>-3272</v>
       </c>
       <c r="E15">
-        <v>5.821</v>
+        <v>5.8209999999999997</v>
       </c>
       <c r="F15">
-        <v>-5.049</v>
+        <v>-5.0490000000000004</v>
       </c>
       <c r="G15">
         <v>7.5</v>
@@ -1118,7 +1176,7 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1130,12 +1188,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9965000000000001</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="C16">
         <v>-16025</v>
@@ -1144,10 +1202,10 @@
         <v>-4126</v>
       </c>
       <c r="E16">
-        <v>-17.577</v>
+        <v>-17.577000000000002</v>
       </c>
       <c r="F16">
-        <v>-12.697</v>
+        <v>-12.696999999999999</v>
       </c>
       <c r="G16">
         <v>7.5</v>
@@ -1159,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1171,12 +1229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9965000000000001</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="C17">
         <v>18697</v>
@@ -1185,10 +1243,10 @@
         <v>5152</v>
       </c>
       <c r="E17">
-        <v>18.697</v>
+        <v>18.696999999999999</v>
       </c>
       <c r="F17">
-        <v>5.152</v>
+        <v>5.1520000000000001</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1212,12 +1270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9962</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="C18">
         <v>5933</v>
@@ -1226,13 +1284,13 @@
         <v>-26497</v>
       </c>
       <c r="E18">
-        <v>-2.351</v>
+        <v>-4.6239999999999997</v>
       </c>
       <c r="F18">
-        <v>-23.28</v>
+        <v>-9.3160000000000007</v>
       </c>
       <c r="G18">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1241,7 +1299,7 @@
         <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1253,12 +1311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9959</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="C19">
         <v>5874</v>
@@ -1267,22 +1325,22 @@
         <v>-19160</v>
       </c>
       <c r="E19">
-        <v>3.94</v>
+        <v>10.337999999999999</v>
       </c>
       <c r="F19">
-        <v>-11.414</v>
+        <v>-13.712</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1294,12 +1352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9958</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="C20">
         <v>-12283</v>
@@ -1308,22 +1366,22 @@
         <v>-8383</v>
       </c>
       <c r="E20">
-        <v>0.572</v>
+        <v>-16.710999999999999</v>
       </c>
       <c r="F20">
-        <v>-4.728</v>
+        <v>-7.1619999999999999</v>
       </c>
       <c r="G20">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1335,12 +1393,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9954</v>
+        <v>0.99539999999999995</v>
       </c>
       <c r="C21">
         <v>7530</v>
@@ -1352,7 +1410,7 @@
         <v>10.169</v>
       </c>
       <c r="F21">
-        <v>-14.392</v>
+        <v>-14.391999999999999</v>
       </c>
       <c r="G21">
         <v>11.5</v>
@@ -1364,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1377,6 +1435,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/1.2/aunt(1, 1).xlsx
+++ b/data/1.2/aunt(1, 1).xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\1.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C0043-65A4-4E86-9605-1F4E91988EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -160,12 +154,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,15 +167,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,23 +214,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -285,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,27 +296,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,24 +330,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,18 +505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -614,12 +553,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.99980000000000002</v>
+        <v>0.9998</v>
       </c>
       <c r="C2">
         <v>931</v>
@@ -655,12 +594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.99929999999999997</v>
+        <v>0.9993</v>
       </c>
       <c r="C3">
         <v>7529</v>
@@ -669,7 +608,7 @@
         <v>-7145</v>
       </c>
       <c r="E3">
-        <v>20.905999999999999</v>
+        <v>20.906</v>
       </c>
       <c r="F3">
         <v>-7.931</v>
@@ -696,12 +635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.99919999999999998</v>
+        <v>0.9992</v>
       </c>
       <c r="C4">
         <v>5393</v>
@@ -710,7 +649,7 @@
         <v>2140</v>
       </c>
       <c r="E4">
-        <v>3.8370000000000002</v>
+        <v>3.837</v>
       </c>
       <c r="F4">
         <v>-4.17</v>
@@ -737,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -751,7 +690,7 @@
         <v>-3340</v>
       </c>
       <c r="E5">
-        <v>-3.7120000000000002</v>
+        <v>-3.712</v>
       </c>
       <c r="F5">
         <v>-18.471</v>
@@ -778,12 +717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.99880000000000002</v>
+        <v>0.9988</v>
       </c>
       <c r="C6">
         <v>-3975</v>
@@ -795,7 +734,7 @@
         <v>-2.71</v>
       </c>
       <c r="F6">
-        <v>-5.0819999999999999</v>
+        <v>-5.082</v>
       </c>
       <c r="G6">
         <v>7.5</v>
@@ -819,12 +758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.99860000000000004</v>
+        <v>0.9986</v>
       </c>
       <c r="C7">
         <v>-1664</v>
@@ -833,10 +772,10 @@
         <v>-4955</v>
       </c>
       <c r="E7">
-        <v>0.57199999999999995</v>
+        <v>0.572</v>
       </c>
       <c r="F7">
-        <v>-4.7279999999999998</v>
+        <v>-4.728</v>
       </c>
       <c r="G7">
         <v>11.5</v>
@@ -860,12 +799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.99819999999999998</v>
+        <v>0.9982</v>
       </c>
       <c r="C8">
         <v>-9033</v>
@@ -874,10 +813,10 @@
         <v>-19403</v>
       </c>
       <c r="E8">
-        <v>0.57199999999999995</v>
+        <v>0.572</v>
       </c>
       <c r="F8">
-        <v>-4.7279999999999998</v>
+        <v>-4.728</v>
       </c>
       <c r="G8">
         <v>7.5</v>
@@ -901,12 +840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.99809999999999999</v>
+        <v>0.9981</v>
       </c>
       <c r="C9">
         <v>3469</v>
@@ -942,12 +881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.99790000000000001</v>
+        <v>0.9979</v>
       </c>
       <c r="C10">
         <v>775</v>
@@ -956,10 +895,10 @@
         <v>-2321</v>
       </c>
       <c r="E10">
-        <v>-5.6779999999999999</v>
+        <v>-5.678</v>
       </c>
       <c r="F10">
-        <v>-5.3029999999999999</v>
+        <v>-5.303</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -983,12 +922,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.99760000000000004</v>
+        <v>0.9976</v>
       </c>
       <c r="C11">
         <v>-15148</v>
@@ -997,7 +936,7 @@
         <v>-28155</v>
       </c>
       <c r="E11">
-        <v>-2.3490000000000002</v>
+        <v>-2.349</v>
       </c>
       <c r="F11">
         <v>-23.288</v>
@@ -1024,12 +963,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.99739999999999995</v>
+        <v>0.9974</v>
       </c>
       <c r="C12">
         <v>-10904</v>
@@ -1041,7 +980,7 @@
         <v>-15.478</v>
       </c>
       <c r="F12">
-        <v>-27.170999999999999</v>
+        <v>-27.171</v>
       </c>
       <c r="G12">
         <v>7.5</v>
@@ -1065,12 +1004,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.99709999999999999</v>
+        <v>0.9971</v>
       </c>
       <c r="C13">
         <v>2161</v>
@@ -1106,12 +1045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.99680000000000002</v>
+        <v>0.9968</v>
       </c>
       <c r="C14">
         <v>-8408</v>
@@ -1120,10 +1059,10 @@
         <v>12411</v>
       </c>
       <c r="E14">
-        <v>-5.8999999999999997E-2</v>
+        <v>-0.059</v>
       </c>
       <c r="F14">
-        <v>-7.2999999999999995E-2</v>
+        <v>-0.073</v>
       </c>
       <c r="G14">
         <v>9.5</v>
@@ -1147,12 +1086,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.99650000000000005</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="C15">
         <v>9108</v>
@@ -1161,10 +1100,10 @@
         <v>-3272</v>
       </c>
       <c r="E15">
-        <v>5.8209999999999997</v>
+        <v>5.821</v>
       </c>
       <c r="F15">
-        <v>-5.0490000000000004</v>
+        <v>-5.049</v>
       </c>
       <c r="G15">
         <v>7.5</v>
@@ -1188,12 +1127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.99650000000000005</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="C16">
         <v>-16025</v>
@@ -1202,10 +1141,10 @@
         <v>-4126</v>
       </c>
       <c r="E16">
-        <v>-17.577000000000002</v>
+        <v>-17.577</v>
       </c>
       <c r="F16">
-        <v>-12.696999999999999</v>
+        <v>-12.697</v>
       </c>
       <c r="G16">
         <v>7.5</v>
@@ -1229,12 +1168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.99650000000000005</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="C17">
         <v>18697</v>
@@ -1243,10 +1182,10 @@
         <v>5152</v>
       </c>
       <c r="E17">
-        <v>18.696999999999999</v>
+        <v>18.697</v>
       </c>
       <c r="F17">
-        <v>5.1520000000000001</v>
+        <v>5.152</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1270,12 +1209,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.99619999999999997</v>
+        <v>0.9962</v>
       </c>
       <c r="C18">
         <v>5933</v>
@@ -1284,10 +1223,10 @@
         <v>-26497</v>
       </c>
       <c r="E18">
-        <v>-4.6239999999999997</v>
+        <v>-4.624</v>
       </c>
       <c r="F18">
-        <v>-9.3160000000000007</v>
+        <v>-9.316000000000001</v>
       </c>
       <c r="G18">
         <v>9</v>
@@ -1311,12 +1250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.99590000000000001</v>
+        <v>0.9959</v>
       </c>
       <c r="C19">
         <v>5874</v>
@@ -1325,7 +1264,7 @@
         <v>-19160</v>
       </c>
       <c r="E19">
-        <v>10.337999999999999</v>
+        <v>10.338</v>
       </c>
       <c r="F19">
         <v>-13.712</v>
@@ -1352,12 +1291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.99580000000000002</v>
+        <v>0.9958</v>
       </c>
       <c r="C20">
         <v>-12283</v>
@@ -1366,10 +1305,10 @@
         <v>-8383</v>
       </c>
       <c r="E20">
-        <v>-16.710999999999999</v>
+        <v>-16.711</v>
       </c>
       <c r="F20">
-        <v>-7.1619999999999999</v>
+        <v>-7.162</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -1393,12 +1332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.99539999999999995</v>
+        <v>0.9954</v>
       </c>
       <c r="C21">
         <v>7530</v>
@@ -1410,7 +1349,7 @@
         <v>10.169</v>
       </c>
       <c r="F21">
-        <v>-14.391999999999999</v>
+        <v>-14.392</v>
       </c>
       <c r="G21">
         <v>11.5</v>
@@ -1435,8 +1374,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/1.2/aunt(1, 1).xlsx
+++ b/data/1.2/aunt(1, 1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>serviceScore</t>
   </si>
@@ -55,43 +55,43 @@
     <t>id</t>
   </si>
   <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>[39, 5, 41]</t>
+    <t>[30, 40]</t>
+  </si>
+  <si>
+    <t>[39, 5]</t>
   </si>
   <si>
     <t>[32]</t>
   </si>
   <si>
-    <t>[42, 0, 16, 40]</t>
-  </si>
-  <si>
-    <t>[13, 18]</t>
-  </si>
-  <si>
-    <t>[17, 10, 21]</t>
-  </si>
-  <si>
-    <t>[24, 46, 22]</t>
-  </si>
-  <si>
-    <t>[2]</t>
+    <t>[42, 19]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[17, 22]</t>
+  </si>
+  <si>
+    <t>[24, 46, 18]</t>
+  </si>
+  <si>
+    <t>[2, 3, 16]</t>
   </si>
   <si>
     <t>[8]</t>
   </si>
   <si>
-    <t>[47, 25, 49]</t>
+    <t>[47, 25]</t>
   </si>
   <si>
     <t>[15, 9, 36]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[14, 31]</t>
+    <t>[31]</t>
+  </si>
+  <si>
+    <t>[14, 10]</t>
   </si>
   <si>
     <t>[35, 20, 44]</t>
@@ -100,40 +100,49 @@
     <t>[11, 12, 34]</t>
   </si>
   <si>
-    <t>[48, 26, 27]</t>
-  </si>
-  <si>
-    <t>[1, 45, 38, 43, 19]</t>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[48, 26, 27, 21]</t>
+  </si>
+  <si>
+    <t>[1, 45, 38, 43, 4]</t>
   </si>
   <si>
     <t>[29, 28, 33, 23, 37]</t>
   </si>
   <si>
-    <t>[7, 6, 3, 4]</t>
-  </si>
-  <si>
-    <t>[0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 9.0]</t>
+    <t>[7, 6, 0, 49]</t>
+  </si>
+  <si>
+    <t>[0.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
-    <t>[1.0, 5.0, 8.0, 10.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 6.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 7.0, 9.0]</t>
+    <t>[1.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 6.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 6.0, 8.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 5.0]</t>
   </si>
   <si>
     <t>[0.0, 2.0, 5.0]</t>
   </si>
   <si>
-    <t>[1.0, 5.0, 7.0]</t>
+    <t>[7.0]</t>
   </si>
   <si>
     <t>[4.0, 7.0]</t>
@@ -142,13 +151,19 @@
     <t>[0.0, 1.5, 5.0]</t>
   </si>
   <si>
+    <t>[9.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 5.0, 7.0, 9.0]</t>
+  </si>
+  <si>
     <t>[0.0, 2.0, 5.0, 7.5, 9.0]</t>
   </si>
   <si>
     <t>[0.0, 2.0, 4.0, 7.0, 9.0]</t>
   </si>
   <si>
-    <t>[0.0, 1.5, 6.0, 9.0]</t>
+    <t>[0.0, 1.5, 5.0, 7.5]</t>
   </si>
 </sst>
 </file>
@@ -567,22 +582,22 @@
         <v>-31576</v>
       </c>
       <c r="E2">
-        <v>-2.351</v>
+        <v>-3.712</v>
       </c>
       <c r="F2">
-        <v>-23.28</v>
+        <v>-18.471</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -608,22 +623,22 @@
         <v>-7145</v>
       </c>
       <c r="E3">
-        <v>20.906</v>
+        <v>12.127</v>
       </c>
       <c r="F3">
-        <v>-7.931</v>
+        <v>-8.696</v>
       </c>
       <c r="G3">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -664,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -690,22 +705,22 @@
         <v>-3340</v>
       </c>
       <c r="E5">
-        <v>-3.712</v>
+        <v>10.338</v>
       </c>
       <c r="F5">
-        <v>-18.471</v>
+        <v>-13.712</v>
       </c>
       <c r="G5">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -731,13 +746,13 @@
         <v>4144</v>
       </c>
       <c r="E6">
-        <v>-2.71</v>
+        <v>-5.408</v>
       </c>
       <c r="F6">
-        <v>-5.082</v>
+        <v>-4.549</v>
       </c>
       <c r="G6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -746,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -778,10 +793,10 @@
         <v>-4.728</v>
       </c>
       <c r="G7">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -813,10 +828,10 @@
         <v>-19403</v>
       </c>
       <c r="E8">
-        <v>0.572</v>
+        <v>-2.71</v>
       </c>
       <c r="F8">
-        <v>-4.728</v>
+        <v>-5.082</v>
       </c>
       <c r="G8">
         <v>7.5</v>
@@ -854,13 +869,13 @@
         <v>-7249</v>
       </c>
       <c r="E9">
-        <v>3.94</v>
+        <v>-2.214</v>
       </c>
       <c r="F9">
-        <v>-11.414</v>
+        <v>-13.722</v>
       </c>
       <c r="G9">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -869,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -910,7 +925,7 @@
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -936,13 +951,13 @@
         <v>-28155</v>
       </c>
       <c r="E11">
-        <v>-2.349</v>
+        <v>-15.478</v>
       </c>
       <c r="F11">
-        <v>-23.288</v>
+        <v>-27.171</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -951,7 +966,7 @@
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -992,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1018,13 +1033,13 @@
         <v>11667</v>
       </c>
       <c r="E13">
-        <v>2.161</v>
+        <v>-0.059</v>
       </c>
       <c r="F13">
-        <v>11.667</v>
+        <v>-0.073</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1033,10 +1048,10 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1059,13 +1074,13 @@
         <v>12411</v>
       </c>
       <c r="E14">
-        <v>-0.059</v>
+        <v>-0.271</v>
       </c>
       <c r="F14">
-        <v>-0.073</v>
+        <v>-0.178</v>
       </c>
       <c r="G14">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1074,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1115,7 +1130,7 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1156,7 +1171,7 @@
         <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1182,25 +1197,25 @@
         <v>5152</v>
       </c>
       <c r="E17">
-        <v>18.697</v>
+        <v>20.906</v>
       </c>
       <c r="F17">
-        <v>5.152</v>
+        <v>-7.931</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1223,22 +1238,22 @@
         <v>-26497</v>
       </c>
       <c r="E18">
-        <v>-4.624</v>
+        <v>0.572</v>
       </c>
       <c r="F18">
-        <v>-9.316000000000001</v>
+        <v>-4.728</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1264,10 +1279,10 @@
         <v>-19160</v>
       </c>
       <c r="E19">
-        <v>10.338</v>
+        <v>10.169</v>
       </c>
       <c r="F19">
-        <v>-13.712</v>
+        <v>-14.392</v>
       </c>
       <c r="G19">
         <v>11.5</v>
@@ -1276,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1317,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1346,22 +1361,22 @@
         <v>-12518</v>
       </c>
       <c r="E21">
-        <v>10.169</v>
+        <v>-2.349</v>
       </c>
       <c r="F21">
-        <v>-14.392</v>
+        <v>-23.288</v>
       </c>
       <c r="G21">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>0</v>

--- a/data/1.2/aunt(1, 1).xlsx
+++ b/data/1.2/aunt(1, 1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>serviceScore</t>
   </si>
@@ -55,43 +55,43 @@
     <t>id</t>
   </si>
   <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>[39, 5, 41]</t>
+    <t>[30, 49, 40]</t>
+  </si>
+  <si>
+    <t>[39, 5]</t>
   </si>
   <si>
     <t>[32]</t>
   </si>
   <si>
-    <t>[42, 0, 16, 40]</t>
-  </si>
-  <si>
-    <t>[13, 18]</t>
-  </si>
-  <si>
-    <t>[17, 10, 21]</t>
-  </si>
-  <si>
-    <t>[24, 46, 22]</t>
-  </si>
-  <si>
-    <t>[2]</t>
+    <t>[42, 4]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[17, 22]</t>
+  </si>
+  <si>
+    <t>[24, 46, 18]</t>
+  </si>
+  <si>
+    <t>[2, 3]</t>
   </si>
   <si>
     <t>[8]</t>
   </si>
   <si>
-    <t>[47, 25, 49]</t>
+    <t>[47, 25]</t>
   </si>
   <si>
     <t>[15, 9, 36]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[14, 31]</t>
+    <t>[31]</t>
+  </si>
+  <si>
+    <t>[14, 10]</t>
   </si>
   <si>
     <t>[35, 20, 44]</t>
@@ -100,7 +100,10 @@
     <t>[11, 12, 34]</t>
   </si>
   <si>
-    <t>[48, 26, 27]</t>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[48, 26, 27, 21]</t>
   </si>
   <si>
     <t>[1, 45, 38, 43, 19]</t>
@@ -109,31 +112,37 @@
     <t>[29, 28, 33, 23, 37]</t>
   </si>
   <si>
-    <t>[7, 6, 3, 4]</t>
-  </si>
-  <si>
-    <t>[0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 9.0]</t>
+    <t>[7, 6, 0, 16]</t>
+  </si>
+  <si>
+    <t>[0.0, 7.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
-    <t>[1.0, 5.0, 8.0, 10.0]</t>
+    <t>[1.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 6.0]</t>
   </si>
   <si>
     <t>[1.0, 6.0]</t>
   </si>
   <si>
-    <t>[0.0, 7.0, 9.0]</t>
+    <t>[1.0, 5.0]</t>
   </si>
   <si>
     <t>[0.0, 2.0, 5.0]</t>
   </si>
   <si>
-    <t>[1.0, 5.0, 7.0]</t>
+    <t>[7.0]</t>
   </si>
   <si>
     <t>[4.0, 7.0]</t>
@@ -142,13 +151,19 @@
     <t>[0.0, 1.5, 5.0]</t>
   </si>
   <si>
+    <t>[9.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 5.0, 7.0, 9.0]</t>
+  </si>
+  <si>
     <t>[0.0, 2.0, 5.0, 7.5, 9.0]</t>
   </si>
   <si>
     <t>[0.0, 2.0, 4.0, 7.0, 9.0]</t>
   </si>
   <si>
-    <t>[0.0, 1.5, 6.0, 9.0]</t>
+    <t>[0.0, 1.5, 5.0, 8.0]</t>
   </si>
 </sst>
 </file>
@@ -567,22 +582,22 @@
         <v>-31576</v>
       </c>
       <c r="E2">
-        <v>-2.351</v>
+        <v>-3.712</v>
       </c>
       <c r="F2">
-        <v>-23.28</v>
+        <v>-18.471</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -608,22 +623,22 @@
         <v>-7145</v>
       </c>
       <c r="E3">
-        <v>20.906</v>
+        <v>12.127</v>
       </c>
       <c r="F3">
-        <v>-7.931</v>
+        <v>-8.696</v>
       </c>
       <c r="G3">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -664,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -690,22 +705,22 @@
         <v>-3340</v>
       </c>
       <c r="E5">
-        <v>-3.712</v>
+        <v>10.169</v>
       </c>
       <c r="F5">
-        <v>-18.471</v>
+        <v>-14.392</v>
       </c>
       <c r="G5">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -731,13 +746,13 @@
         <v>4144</v>
       </c>
       <c r="E6">
-        <v>-2.71</v>
+        <v>-5.408</v>
       </c>
       <c r="F6">
-        <v>-5.082</v>
+        <v>-4.549</v>
       </c>
       <c r="G6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -746,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -778,10 +793,10 @@
         <v>-4.728</v>
       </c>
       <c r="G7">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -813,10 +828,10 @@
         <v>-19403</v>
       </c>
       <c r="E8">
-        <v>0.572</v>
+        <v>-2.71</v>
       </c>
       <c r="F8">
-        <v>-4.728</v>
+        <v>-5.082</v>
       </c>
       <c r="G8">
         <v>7.5</v>
@@ -854,13 +869,13 @@
         <v>-7249</v>
       </c>
       <c r="E9">
-        <v>3.94</v>
+        <v>1.791</v>
       </c>
       <c r="F9">
-        <v>-11.414</v>
+        <v>-16.026</v>
       </c>
       <c r="G9">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -869,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -910,7 +925,7 @@
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -936,13 +951,13 @@
         <v>-28155</v>
       </c>
       <c r="E11">
-        <v>-2.349</v>
+        <v>-15.478</v>
       </c>
       <c r="F11">
-        <v>-23.288</v>
+        <v>-27.171</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -951,7 +966,7 @@
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -992,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1018,13 +1033,13 @@
         <v>11667</v>
       </c>
       <c r="E13">
-        <v>2.161</v>
+        <v>-0.059</v>
       </c>
       <c r="F13">
-        <v>11.667</v>
+        <v>-0.073</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1033,10 +1048,10 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1059,13 +1074,13 @@
         <v>12411</v>
       </c>
       <c r="E14">
-        <v>-0.059</v>
+        <v>-0.271</v>
       </c>
       <c r="F14">
-        <v>-0.073</v>
+        <v>-0.178</v>
       </c>
       <c r="G14">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1074,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1115,7 +1130,7 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1156,7 +1171,7 @@
         <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1182,25 +1197,25 @@
         <v>5152</v>
       </c>
       <c r="E17">
-        <v>18.697</v>
+        <v>20.906</v>
       </c>
       <c r="F17">
-        <v>5.152</v>
+        <v>-7.931</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1223,22 +1238,22 @@
         <v>-26497</v>
       </c>
       <c r="E18">
-        <v>-4.624</v>
+        <v>0.572</v>
       </c>
       <c r="F18">
-        <v>-9.316000000000001</v>
+        <v>-4.728</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1276,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1317,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1346,22 +1361,22 @@
         <v>-12518</v>
       </c>
       <c r="E21">
-        <v>10.169</v>
+        <v>-2.214</v>
       </c>
       <c r="F21">
-        <v>-14.392</v>
+        <v>-13.722</v>
       </c>
       <c r="G21">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>0</v>

--- a/data/1.2/aunt(1, 1).xlsx
+++ b/data/1.2/aunt(1, 1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>serviceScore</t>
   </si>
@@ -55,55 +55,55 @@
     <t>id</t>
   </si>
   <si>
-    <t>[30, 40]</t>
-  </si>
-  <si>
-    <t>[39, 5]</t>
-  </si>
-  <si>
-    <t>[32]</t>
-  </si>
-  <si>
-    <t>[42, 19]</t>
+    <t>[30, 9, 26, 27]</t>
+  </si>
+  <si>
+    <t>[39, 5, 41]</t>
+  </si>
+  <si>
+    <t>[32, 31, 21]</t>
+  </si>
+  <si>
+    <t>[42, 3, 16, 40]</t>
   </si>
   <si>
     <t>[13]</t>
   </si>
   <si>
-    <t>[17, 22]</t>
-  </si>
-  <si>
-    <t>[24, 46, 18]</t>
-  </si>
-  <si>
-    <t>[2, 3, 16]</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>[47, 25]</t>
-  </si>
-  <si>
-    <t>[15, 9, 36]</t>
-  </si>
-  <si>
-    <t>[31]</t>
-  </si>
-  <si>
-    <t>[14, 10]</t>
-  </si>
-  <si>
-    <t>[35, 20, 44]</t>
-  </si>
-  <si>
-    <t>[11, 12, 34]</t>
-  </si>
-  <si>
-    <t>[41]</t>
-  </si>
-  <si>
-    <t>[48, 26, 27, 21]</t>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[8, 18]</t>
+  </si>
+  <si>
+    <t>[47, 25, 49]</t>
+  </si>
+  <si>
+    <t>[15, 36]</t>
+  </si>
+  <si>
+    <t>[46, 22]</t>
+  </si>
+  <si>
+    <t>[12, 34]</t>
+  </si>
+  <si>
+    <t>[35, 20, 44, 19]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[48, 0, 10]</t>
   </si>
   <si>
     <t>[1, 45, 38, 43, 4]</t>
@@ -112,58 +112,52 @@
     <t>[29, 28, 33, 23, 37]</t>
   </si>
   <si>
-    <t>[7, 6, 0, 49]</t>
-  </si>
-  <si>
-    <t>[0.0, 10.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0]</t>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 5.0, 7.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 7.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 6.0, 8.0, 10.0]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
-    <t>[1.0, 9.0]</t>
+    <t>[0.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 6.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 5.0, 7.5]</t>
   </si>
   <si>
     <t>[0.0, 5.0]</t>
   </si>
   <si>
-    <t>[0.0, 2.0, 6.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 6.0, 8.0]</t>
+    <t>[2.0, 5.0]</t>
   </si>
   <si>
     <t>[1.0, 5.0]</t>
   </si>
   <si>
-    <t>[0.0, 2.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[7.0]</t>
-  </si>
-  <si>
-    <t>[4.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.5, 5.0]</t>
-  </si>
-  <si>
-    <t>[9.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 5.0, 7.0, 9.0]</t>
+    <t>[0.0, 2.0, 5.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 5.0, 7.0]</t>
   </si>
   <si>
     <t>[0.0, 2.0, 5.0, 7.5, 9.0]</t>
   </si>
   <si>
     <t>[0.0, 2.0, 4.0, 7.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.5, 5.0, 7.5]</t>
   </si>
 </sst>
 </file>
@@ -582,16 +576,16 @@
         <v>-31576</v>
       </c>
       <c r="E2">
-        <v>-3.712</v>
+        <v>-4.624</v>
       </c>
       <c r="F2">
-        <v>-18.471</v>
+        <v>-9.316000000000001</v>
       </c>
       <c r="G2">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -623,13 +617,13 @@
         <v>-7145</v>
       </c>
       <c r="E3">
-        <v>12.127</v>
+        <v>20.906</v>
       </c>
       <c r="F3">
-        <v>-8.696</v>
+        <v>-7.931</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -664,16 +658,16 @@
         <v>2140</v>
       </c>
       <c r="E4">
-        <v>3.837</v>
+        <v>0.572</v>
       </c>
       <c r="F4">
-        <v>-4.17</v>
+        <v>-4.728</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -705,16 +699,16 @@
         <v>-3340</v>
       </c>
       <c r="E5">
-        <v>10.338</v>
+        <v>-3.712</v>
       </c>
       <c r="F5">
-        <v>-13.712</v>
+        <v>-18.471</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -752,7 +746,7 @@
         <v>-4.549</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -761,7 +755,7 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -793,7 +787,7 @@
         <v>-4.728</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -802,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -828,13 +822,13 @@
         <v>-19403</v>
       </c>
       <c r="E8">
-        <v>-2.71</v>
+        <v>-0.416</v>
       </c>
       <c r="F8">
-        <v>-5.082</v>
+        <v>-17.129</v>
       </c>
       <c r="G8">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -869,13 +863,13 @@
         <v>-7249</v>
       </c>
       <c r="E9">
-        <v>-2.214</v>
+        <v>3.94</v>
       </c>
       <c r="F9">
-        <v>-13.722</v>
+        <v>-11.414</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -884,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -910,13 +904,13 @@
         <v>-2321</v>
       </c>
       <c r="E10">
-        <v>-5.678</v>
+        <v>-2.71</v>
       </c>
       <c r="F10">
-        <v>-5.303</v>
+        <v>-5.082</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -925,7 +919,7 @@
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -951,13 +945,13 @@
         <v>-28155</v>
       </c>
       <c r="E11">
-        <v>-15.478</v>
+        <v>-2.349</v>
       </c>
       <c r="F11">
-        <v>-27.171</v>
+        <v>-23.288</v>
       </c>
       <c r="G11">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -998,7 +992,7 @@
         <v>-27.171</v>
       </c>
       <c r="G12">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1033,13 +1027,13 @@
         <v>11667</v>
       </c>
       <c r="E13">
-        <v>-0.059</v>
+        <v>0.572</v>
       </c>
       <c r="F13">
-        <v>-0.073</v>
+        <v>-4.728</v>
       </c>
       <c r="G13">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1074,13 +1068,13 @@
         <v>12411</v>
       </c>
       <c r="E14">
-        <v>-0.271</v>
+        <v>-17.577</v>
       </c>
       <c r="F14">
-        <v>-0.178</v>
+        <v>-12.697</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1115,13 +1109,13 @@
         <v>-3272</v>
       </c>
       <c r="E15">
-        <v>5.821</v>
+        <v>10.338</v>
       </c>
       <c r="F15">
-        <v>-5.049</v>
+        <v>-13.712</v>
       </c>
       <c r="G15">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1130,7 +1124,7 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1156,13 +1150,13 @@
         <v>-4126</v>
       </c>
       <c r="E16">
-        <v>-17.577</v>
+        <v>-18.446</v>
       </c>
       <c r="F16">
-        <v>-12.697</v>
+        <v>-7.727</v>
       </c>
       <c r="G16">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1171,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1197,22 +1191,22 @@
         <v>5152</v>
       </c>
       <c r="E17">
-        <v>20.906</v>
+        <v>7.763</v>
       </c>
       <c r="F17">
-        <v>-7.931</v>
+        <v>-15.024</v>
       </c>
       <c r="G17">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1238,22 +1232,22 @@
         <v>-26497</v>
       </c>
       <c r="E18">
-        <v>0.572</v>
+        <v>-0.271</v>
       </c>
       <c r="F18">
-        <v>-4.728</v>
+        <v>-0.178</v>
       </c>
       <c r="G18">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1285,16 +1279,16 @@
         <v>-14.392</v>
       </c>
       <c r="G19">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1335,7 +1329,7 @@
         <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1361,13 +1355,13 @@
         <v>-12518</v>
       </c>
       <c r="E21">
-        <v>-2.349</v>
+        <v>10.846</v>
       </c>
       <c r="F21">
-        <v>-23.288</v>
+        <v>-16.361</v>
       </c>
       <c r="G21">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1376,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K21">
         <v>0</v>

--- a/data/1.2/aunt(1, 1).xlsx
+++ b/data/1.2/aunt(1, 1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>serviceScore</t>
   </si>
@@ -55,109 +55,100 @@
     <t>id</t>
   </si>
   <si>
-    <t>[30, 9, 26, 27]</t>
-  </si>
-  <si>
-    <t>[39, 5, 41]</t>
-  </si>
-  <si>
-    <t>[32, 31, 21]</t>
-  </si>
-  <si>
-    <t>[42, 3, 16, 40]</t>
-  </si>
-  <si>
-    <t>[13]</t>
-  </si>
-  <si>
-    <t>[17]</t>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[39, 5, 0, 3, 49]</t>
+  </si>
+  <si>
+    <t>[32, 45, 38, 18, 43, 19]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[13, 46, 26, 27, 16, 40]</t>
+  </si>
+  <si>
+    <t>[17, 22, 10, 21]</t>
   </si>
   <si>
     <t>[24]</t>
   </si>
   <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[8, 18]</t>
-  </si>
-  <si>
-    <t>[47, 25, 49]</t>
-  </si>
-  <si>
-    <t>[15, 36]</t>
-  </si>
-  <si>
-    <t>[46, 22]</t>
-  </si>
-  <si>
-    <t>[12, 34]</t>
-  </si>
-  <si>
-    <t>[35, 20, 44, 19]</t>
-  </si>
-  <si>
-    <t>[11]</t>
+    <t>[2, 20, 44, 31, 41]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[47, 36]</t>
+  </si>
+  <si>
+    <t>[15, 9, 25, 4]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[12, 28, 33, 23, 37]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[11, 34]</t>
   </si>
   <si>
     <t>[6]</t>
   </si>
   <si>
-    <t>[48, 0, 10]</t>
-  </si>
-  <si>
-    <t>[1, 45, 38, 43, 4]</t>
-  </si>
-  <si>
-    <t>[29, 28, 33, 23, 37]</t>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[29]</t>
   </si>
   <si>
     <t>[7]</t>
   </si>
   <si>
-    <t>[0.0, 2.0, 5.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 7.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 6.0, 8.0, 10.0]</t>
+    <t>[0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 5.0, 6.0, 7.5]</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 5.0, 6.0, 7.5, 9.0]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
-    <t>[0.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 6.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 5.0, 7.5]</t>
+    <t>[1.0, 2.0, 5.0, 7.0, 8.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 5.0, 7.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 5.0, 7.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 5.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[4.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 4.0, 7.0, 9.0]</t>
   </si>
   <si>
     <t>[0.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[2.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 5.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 5.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 5.0, 7.5, 9.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 4.0, 7.0, 9.0]</t>
   </si>
 </sst>
 </file>
@@ -576,13 +567,13 @@
         <v>-31576</v>
       </c>
       <c r="E2">
-        <v>-4.624</v>
+        <v>-2.351</v>
       </c>
       <c r="F2">
-        <v>-9.316000000000001</v>
+        <v>-23.28</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -617,13 +608,13 @@
         <v>-7145</v>
       </c>
       <c r="E3">
-        <v>20.906</v>
+        <v>-2.349</v>
       </c>
       <c r="F3">
-        <v>-7.931</v>
+        <v>-23.288</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -658,16 +649,16 @@
         <v>2140</v>
       </c>
       <c r="E4">
-        <v>0.572</v>
+        <v>10.338</v>
       </c>
       <c r="F4">
-        <v>-4.728</v>
+        <v>-13.712</v>
       </c>
       <c r="G4">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -699,16 +690,16 @@
         <v>-3340</v>
       </c>
       <c r="E5">
-        <v>-3.712</v>
+        <v>7.219</v>
       </c>
       <c r="F5">
-        <v>-18.471</v>
+        <v>-12.688</v>
       </c>
       <c r="G5">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -740,13 +731,13 @@
         <v>4144</v>
       </c>
       <c r="E6">
-        <v>-5.408</v>
+        <v>-3.712</v>
       </c>
       <c r="F6">
-        <v>-4.549</v>
+        <v>-18.471</v>
       </c>
       <c r="G6">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -787,7 +778,7 @@
         <v>-4.728</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -837,7 +828,7 @@
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -863,13 +854,13 @@
         <v>-7249</v>
       </c>
       <c r="E9">
-        <v>3.94</v>
+        <v>20.906</v>
       </c>
       <c r="F9">
-        <v>-11.414</v>
+        <v>-7.931</v>
       </c>
       <c r="G9">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -878,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -904,13 +895,13 @@
         <v>-2321</v>
       </c>
       <c r="E10">
-        <v>-2.71</v>
+        <v>-5.678</v>
       </c>
       <c r="F10">
-        <v>-5.082</v>
+        <v>-5.303</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -919,7 +910,7 @@
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -945,13 +936,13 @@
         <v>-28155</v>
       </c>
       <c r="E11">
-        <v>-2.349</v>
+        <v>-15.478</v>
       </c>
       <c r="F11">
-        <v>-23.288</v>
+        <v>-27.171</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -986,13 +977,13 @@
         <v>-24895</v>
       </c>
       <c r="E12">
-        <v>-15.478</v>
+        <v>10.169</v>
       </c>
       <c r="F12">
-        <v>-27.171</v>
+        <v>-14.392</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1027,13 +1018,13 @@
         <v>11667</v>
       </c>
       <c r="E13">
-        <v>0.572</v>
+        <v>-7.938</v>
       </c>
       <c r="F13">
-        <v>-4.728</v>
+        <v>11.418</v>
       </c>
       <c r="G13">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1068,13 +1059,13 @@
         <v>12411</v>
       </c>
       <c r="E14">
-        <v>-17.577</v>
+        <v>-16.711</v>
       </c>
       <c r="F14">
-        <v>-12.697</v>
+        <v>-7.162</v>
       </c>
       <c r="G14">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1109,13 +1100,13 @@
         <v>-3272</v>
       </c>
       <c r="E15">
-        <v>10.338</v>
+        <v>19.069</v>
       </c>
       <c r="F15">
-        <v>-13.712</v>
+        <v>-5.987</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1124,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1150,13 +1141,13 @@
         <v>-4126</v>
       </c>
       <c r="E16">
-        <v>-18.446</v>
+        <v>-17.577</v>
       </c>
       <c r="F16">
-        <v>-7.727</v>
+        <v>-12.697</v>
       </c>
       <c r="G16">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1165,7 +1156,7 @@
         <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1197,7 +1188,7 @@
         <v>-15.024</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1206,7 +1197,7 @@
         <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1232,13 +1223,13 @@
         <v>-26497</v>
       </c>
       <c r="E18">
-        <v>-0.271</v>
+        <v>0.183</v>
       </c>
       <c r="F18">
-        <v>-0.178</v>
+        <v>-17.706</v>
       </c>
       <c r="G18">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1247,7 +1238,7 @@
         <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1273,13 +1264,13 @@
         <v>-19160</v>
       </c>
       <c r="E19">
-        <v>10.169</v>
+        <v>2.176</v>
       </c>
       <c r="F19">
-        <v>-14.392</v>
+        <v>-17.371</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1288,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1314,13 +1305,13 @@
         <v>-8383</v>
       </c>
       <c r="E20">
-        <v>-16.711</v>
+        <v>-11.254</v>
       </c>
       <c r="F20">
-        <v>-7.162</v>
+        <v>-1.572</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1329,7 +1320,7 @@
         <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1370,7 +1361,7 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0</v>
